--- a/charts/1.xlsx
+++ b/charts/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G261"/>
+  <dimension ref="A1:G361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.66</v>
+        <v>36.32</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.52</v>
+        <v>38.21</v>
       </c>
     </row>
     <row r="4">
@@ -529,7 +529,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.55</v>
+        <v>37.93</v>
       </c>
     </row>
     <row r="5">
@@ -558,7 +558,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.55</v>
+        <v>40.56</v>
       </c>
     </row>
     <row r="6">
@@ -587,7 +587,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.61</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="7">
@@ -616,7 +616,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.59</v>
+        <v>42.35</v>
       </c>
     </row>
     <row r="8">
@@ -645,7 +645,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.62</v>
+        <v>39.56</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.59</v>
+        <v>43.08</v>
       </c>
     </row>
     <row r="10">
@@ -703,7 +703,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.54</v>
+        <v>38.55</v>
       </c>
     </row>
     <row r="11">
@@ -732,7 +732,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -761,7 +761,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>30.11</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="13">
@@ -790,7 +790,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>34.04</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="14">
@@ -819,7 +819,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>40.11</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -848,7 +848,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>31.16</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="16">
@@ -877,7 +877,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>37.52</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="17">
@@ -906,7 +906,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>31.44</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="18">
@@ -935,7 +935,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>31.64</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="19">
@@ -964,7 +964,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>38.35</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="20">
@@ -993,7 +993,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>44.25</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>31.03</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="22">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.02</v>
+        <v>33.92</v>
       </c>
     </row>
     <row r="23">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.03</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="24">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.01</v>
+        <v>30.61</v>
       </c>
     </row>
     <row r="25">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.02</v>
+        <v>34.17</v>
       </c>
     </row>
     <row r="26">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.04</v>
+        <v>31.79</v>
       </c>
     </row>
     <row r="27">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="E27" t="n">
         <v>6</v>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.02</v>
+        <v>30.47</v>
       </c>
     </row>
     <row r="28">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.03</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="29">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.01</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="30">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.02</v>
+        <v>31.79</v>
       </c>
     </row>
     <row r="31">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.02</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="32">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>14.46</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>15.53</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="34">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="E34" t="n">
         <v>3</v>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>12.81</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>13</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>14.27</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="37">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="E37" t="n">
         <v>6</v>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>16.17</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="38">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>15.48</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="39">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>14.49</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="40">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>15.45</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="41">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>18.17</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="42">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1600</v>
+        <v>5800</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.94</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="43">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1600</v>
+        <v>5800</v>
       </c>
       <c r="E43" t="n">
         <v>2</v>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.29</v>
+        <v>18.21</v>
       </c>
     </row>
     <row r="44">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1600</v>
+        <v>5800</v>
       </c>
       <c r="E44" t="n">
         <v>3</v>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.61</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="45">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1600</v>
+        <v>5800</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.94</v>
+        <v>18.51</v>
       </c>
     </row>
     <row r="46">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1600</v>
+        <v>5800</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.78</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="47">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1600</v>
+        <v>5800</v>
       </c>
       <c r="E47" t="n">
         <v>6</v>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.18</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="48">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1600</v>
+        <v>5800</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="49">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1600</v>
+        <v>5800</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.75</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="50">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1600</v>
+        <v>5800</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.63</v>
+        <v>18.49</v>
       </c>
     </row>
     <row r="51">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1600</v>
+        <v>5800</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.79</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>600</v>
+        <v>4800</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.24</v>
+        <v>44.14</v>
       </c>
     </row>
     <row r="53">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>600</v>
+        <v>4800</v>
       </c>
       <c r="E53" t="n">
         <v>2</v>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.26</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="54">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>600</v>
+        <v>4800</v>
       </c>
       <c r="E54" t="n">
         <v>3</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.26</v>
+        <v>43.83</v>
       </c>
     </row>
     <row r="55">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>600</v>
+        <v>4800</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.25</v>
+        <v>44.43</v>
       </c>
     </row>
     <row r="56">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>600</v>
+        <v>4800</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.27</v>
+        <v>45.03</v>
       </c>
     </row>
     <row r="57">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>600</v>
+        <v>4800</v>
       </c>
       <c r="E57" t="n">
         <v>6</v>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.28</v>
+        <v>45.28</v>
       </c>
     </row>
     <row r="58">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>600</v>
+        <v>4800</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.26</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="59">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>600</v>
+        <v>4800</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.24</v>
+        <v>45.77</v>
       </c>
     </row>
     <row r="60">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>600</v>
+        <v>4800</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.29</v>
+        <v>45.76</v>
       </c>
     </row>
     <row r="61">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>600</v>
+        <v>4800</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.33</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="62">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>21.61</v>
+        <v>14.11</v>
       </c>
     </row>
     <row r="63">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="E63" t="n">
         <v>2</v>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>26.37</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="64">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="E64" t="n">
         <v>3</v>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>21.38</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="65">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>19.91</v>
+        <v>14.15</v>
       </c>
     </row>
     <row r="66">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>20.54</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="67">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="E67" t="n">
         <v>6</v>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>21.56</v>
+        <v>14.26</v>
       </c>
     </row>
     <row r="68">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>24.3</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="69">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2423,7 +2423,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>21.88</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="70">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>23.84</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="71">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>22.61</v>
+        <v>15.09</v>
       </c>
     </row>
     <row r="72">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.04</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="73">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E73" t="n">
         <v>2</v>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.12</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="74">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E74" t="n">
         <v>3</v>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.95</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="75">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.04</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="76">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.98</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="77">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E77" t="n">
         <v>6</v>
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.37</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="78">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.05</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="79">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="80">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.16</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="81">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.06</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="82">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>9.859999999999999</v>
+        <v>21.03</v>
       </c>
     </row>
     <row r="83">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2829,7 +2829,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>9.470000000000001</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="84">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="E84" t="n">
         <v>3</v>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>7.52</v>
+        <v>21.98</v>
       </c>
     </row>
     <row r="85">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8.15</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="86">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>8.51</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="87">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="E87" t="n">
         <v>6</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>9.17</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="88">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>7.77</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="89">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>8.130000000000001</v>
+        <v>21.96</v>
       </c>
     </row>
     <row r="90">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>8.56</v>
+        <v>20.97</v>
       </c>
     </row>
     <row r="91">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3061,7 +3061,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7.67</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="92">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>21.68</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="93">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E93" t="n">
         <v>2</v>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>17.62</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="94">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E94" t="n">
         <v>3</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>18.14</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="95">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>22.45</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="96">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>16.88</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="97">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E97" t="n">
         <v>6</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>17.57</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="98">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>17.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="99">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>20.97</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="100">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>22.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="101">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E101" t="n">
         <v>10</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>19.45</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="102">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>44.17</v>
+        <v>51.14</v>
       </c>
     </row>
     <row r="103">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="E103" t="n">
         <v>2</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>52.02</v>
+        <v>51.47</v>
       </c>
     </row>
     <row r="104">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>50.51</v>
+        <v>52.18</v>
       </c>
     </row>
     <row r="105">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>62.98</v>
+        <v>51.63</v>
       </c>
     </row>
     <row r="106">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>54.6</v>
+        <v>55.36</v>
       </c>
     </row>
     <row r="107">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="E107" t="n">
         <v>6</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>54.16</v>
+        <v>52.15</v>
       </c>
     </row>
     <row r="108">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>46.51</v>
+        <v>50.42</v>
       </c>
     </row>
     <row r="109">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>61.06</v>
+        <v>56.45</v>
       </c>
     </row>
     <row r="110">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>77.44</v>
+        <v>53.75</v>
       </c>
     </row>
     <row r="111">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="E111" t="n">
         <v>10</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>68.41</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="112">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="E112" t="n">
         <v>1</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>74.34999999999999</v>
+        <v>20.97</v>
       </c>
     </row>
     <row r="113">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="E113" t="n">
         <v>2</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>69.03</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="114">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="E114" t="n">
         <v>3</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>69.23999999999999</v>
+        <v>21.83</v>
       </c>
     </row>
     <row r="115">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>62.53</v>
+        <v>21.59</v>
       </c>
     </row>
     <row r="116">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>64.18000000000001</v>
+        <v>20.72</v>
       </c>
     </row>
     <row r="117">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="E117" t="n">
         <v>6</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>67.98999999999999</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="118">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>72.68000000000001</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="119">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3873,7 +3873,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>64.87</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="120">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>57.3</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="121">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3931,7 +3931,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>65.12</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="122">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3960,7 +3960,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1400</v>
+        <v>5400</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.64</v>
+        <v>27.59</v>
       </c>
     </row>
     <row r="123">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3989,7 +3989,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1400</v>
+        <v>5400</v>
       </c>
       <c r="E123" t="n">
         <v>2</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.94</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="124">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1400</v>
+        <v>5400</v>
       </c>
       <c r="E124" t="n">
         <v>3</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.24</v>
+        <v>26.99</v>
       </c>
     </row>
     <row r="125">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1400</v>
+        <v>5400</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.74</v>
+        <v>25.83</v>
       </c>
     </row>
     <row r="126">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1400</v>
+        <v>5400</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.93</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="127">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1400</v>
+        <v>5400</v>
       </c>
       <c r="E127" t="n">
         <v>6</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.88</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="128">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1400</v>
+        <v>5400</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.83</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="129">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1400</v>
+        <v>5400</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.15</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="130">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1400</v>
+        <v>5400</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.03</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="131">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1400</v>
+        <v>5400</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.06</v>
+        <v>25.21</v>
       </c>
     </row>
     <row r="132">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4250,7 +4250,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.99</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="133">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4279,7 +4279,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E133" t="n">
         <v>2</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.39</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="134">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E134" t="n">
         <v>3</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.78</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="135">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4337,7 +4337,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.01</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="136">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.61</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="137">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4395,7 +4395,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E137" t="n">
         <v>6</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="138">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4424,7 +4424,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.79</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="139">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.99</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="140">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E140" t="n">
         <v>9</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.29</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="141">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4511,7 +4511,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.62</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="142">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>60.86</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="143">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="E143" t="n">
         <v>2</v>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>61.33</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="144">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4598,7 +4598,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="E144" t="n">
         <v>3</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>68.34</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="145">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>60.02</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="146">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>64.7</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="147">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="E147" t="n">
         <v>6</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>67.54000000000001</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="148">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>62.05</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="149">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>60.19</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="150">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="E150" t="n">
         <v>9</v>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>68.26000000000001</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="151">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4801,7 +4801,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>66.67</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="152">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4830,7 +4830,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>35.41</v>
+        <v>17.59</v>
       </c>
     </row>
     <row r="153">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="E153" t="n">
         <v>2</v>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>37.11</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="154">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="E154" t="n">
         <v>3</v>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>40.46</v>
+        <v>17.83</v>
       </c>
     </row>
     <row r="155">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>44.98</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="156">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>36.6</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="157">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4975,7 +4975,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="E157" t="n">
         <v>6</v>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>39.45</v>
+        <v>17.63</v>
       </c>
     </row>
     <row r="158">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>38.84</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="159">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5033,7 +5033,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>38.95</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="160">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="E160" t="n">
         <v>9</v>
@@ -5073,7 +5073,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>46.95</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="161">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5091,7 +5091,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>38.29</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="162">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="E162" t="n">
         <v>1</v>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>26.33</v>
+        <v>47.18</v>
       </c>
     </row>
     <row r="163">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5149,7 +5149,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="E163" t="n">
         <v>2</v>
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>26.82</v>
+        <v>42.52</v>
       </c>
     </row>
     <row r="164">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5178,7 +5178,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="E164" t="n">
         <v>3</v>
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>25.31</v>
+        <v>43.53</v>
       </c>
     </row>
     <row r="165">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>26.64</v>
+        <v>47.86</v>
       </c>
     </row>
     <row r="166">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5236,7 +5236,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>29.22</v>
+        <v>43.34</v>
       </c>
     </row>
     <row r="167">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="E167" t="n">
         <v>6</v>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>24.83</v>
+        <v>45.85</v>
       </c>
     </row>
     <row r="168">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5294,7 +5294,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>27.77</v>
+        <v>45.92</v>
       </c>
     </row>
     <row r="169">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -5334,7 +5334,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>33.63</v>
+        <v>43.23</v>
       </c>
     </row>
     <row r="170">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="E170" t="n">
         <v>9</v>
@@ -5363,7 +5363,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>27.6</v>
+        <v>44.98</v>
       </c>
     </row>
     <row r="171">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5381,7 +5381,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>32.16</v>
+        <v>43.85</v>
       </c>
     </row>
     <row r="172">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>400</v>
+        <v>5200</v>
       </c>
       <c r="E172" t="n">
         <v>1</v>
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.08</v>
+        <v>30.55</v>
       </c>
     </row>
     <row r="173">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>400</v>
+        <v>5200</v>
       </c>
       <c r="E173" t="n">
         <v>2</v>
@@ -5450,7 +5450,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.08</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="174">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5468,7 +5468,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>400</v>
+        <v>5200</v>
       </c>
       <c r="E174" t="n">
         <v>3</v>
@@ -5479,7 +5479,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.09</v>
+        <v>30.05</v>
       </c>
     </row>
     <row r="175">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>400</v>
+        <v>5200</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -5508,7 +5508,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.09</v>
+        <v>33.59</v>
       </c>
     </row>
     <row r="176">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>400</v>
+        <v>5200</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.1</v>
+        <v>32.21</v>
       </c>
     </row>
     <row r="177">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>400</v>
+        <v>5200</v>
       </c>
       <c r="E177" t="n">
         <v>6</v>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.08</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="178">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5584,7 +5584,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>400</v>
+        <v>5200</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -5595,7 +5595,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.09</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="179">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5613,7 +5613,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>400</v>
+        <v>5200</v>
       </c>
       <c r="E179" t="n">
         <v>8</v>
@@ -5624,7 +5624,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.08</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="180">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>400</v>
+        <v>5200</v>
       </c>
       <c r="E180" t="n">
         <v>9</v>
@@ -5653,7 +5653,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>400</v>
+        <v>5200</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.1</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="182">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5700,7 +5700,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
@@ -5711,7 +5711,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>11.13</v>
+        <v>53.46</v>
       </c>
     </row>
     <row r="183">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5729,7 +5729,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="E183" t="n">
         <v>2</v>
@@ -5740,7 +5740,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>14.9</v>
+        <v>51.29</v>
       </c>
     </row>
     <row r="184">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="E184" t="n">
         <v>3</v>
@@ -5769,7 +5769,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>10.89</v>
+        <v>50.34</v>
       </c>
     </row>
     <row r="185">
@@ -5778,7 +5778,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>16</v>
+        <v>54.38</v>
       </c>
     </row>
     <row r="186">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5816,7 +5816,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>10.04</v>
+        <v>48.72</v>
       </c>
     </row>
     <row r="187">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5845,7 +5845,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="E187" t="n">
         <v>6</v>
@@ -5856,7 +5856,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>12.85</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="188">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5874,7 +5874,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -5885,7 +5885,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>11.28</v>
+        <v>51.71</v>
       </c>
     </row>
     <row r="189">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="E189" t="n">
         <v>8</v>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>11.97</v>
+        <v>53.55</v>
       </c>
     </row>
     <row r="190">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="E190" t="n">
         <v>9</v>
@@ -5943,7 +5943,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>10.76</v>
+        <v>52.39</v>
       </c>
     </row>
     <row r="191">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5961,7 +5961,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>11.14</v>
+        <v>53.21</v>
       </c>
     </row>
     <row r="192">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5990,7 +5990,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E192" t="n">
         <v>1</v>
@@ -6001,7 +6001,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>6.93</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="193">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6019,7 +6019,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E193" t="n">
         <v>2</v>
@@ -6030,7 +6030,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>7.59</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="194">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6048,7 +6048,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E194" t="n">
         <v>3</v>
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>5.72</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="195">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6077,7 +6077,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>5.88</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="196">
@@ -6097,7 +6097,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6106,7 +6106,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5.83</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="197">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6135,7 +6135,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E197" t="n">
         <v>6</v>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>7.37</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="198">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6164,7 +6164,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E198" t="n">
         <v>7</v>
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.56</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="199">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6193,7 +6193,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E199" t="n">
         <v>8</v>
@@ -6204,7 +6204,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>5.55</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="200">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E200" t="n">
         <v>9</v>
@@ -6233,7 +6233,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>6.33</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="201">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>6.04</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="202">
@@ -6271,22 +6271,28 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>3</v>
+        <v>6000</v>
       </c>
       <c r="E202" t="n">
         <v>1</v>
       </c>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>14.67</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -6294,22 +6300,28 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>3</v>
+        <v>6000</v>
       </c>
       <c r="E203" t="n">
         <v>2</v>
       </c>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>15.02</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -6317,22 +6329,28 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>3</v>
+        <v>6000</v>
       </c>
       <c r="E204" t="n">
         <v>3</v>
       </c>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -6340,22 +6358,28 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>3</v>
+        <v>6000</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
       </c>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>14.28</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -6363,22 +6387,28 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3</v>
+        <v>6000</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
       </c>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>14.53</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -6386,22 +6416,28 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>3</v>
+        <v>6000</v>
       </c>
       <c r="E207" t="n">
         <v>6</v>
       </c>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>13.95</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -6409,22 +6445,28 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>3</v>
+        <v>6000</v>
       </c>
       <c r="E208" t="n">
         <v>7</v>
       </c>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -6432,22 +6474,28 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>3</v>
+        <v>6000</v>
       </c>
       <c r="E209" t="n">
         <v>8</v>
       </c>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>13.42</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -6455,22 +6503,28 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>3</v>
+        <v>6000</v>
       </c>
       <c r="E210" t="n">
         <v>9</v>
       </c>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>15.04</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -6478,22 +6532,28 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>3</v>
+        <v>6000</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
       </c>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>14.41</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -6501,22 +6561,28 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
       </c>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -6524,22 +6590,28 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="E213" t="n">
         <v>2</v>
       </c>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -6547,22 +6619,28 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="E214" t="n">
         <v>3</v>
       </c>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -6570,22 +6648,28 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
       </c>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -6593,22 +6677,28 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
       </c>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>1.93</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -6616,22 +6706,28 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="E217" t="n">
         <v>6</v>
       </c>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -6639,22 +6735,28 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="E218" t="n">
         <v>7</v>
       </c>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -6662,22 +6764,28 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="E219" t="n">
         <v>8</v>
       </c>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -6685,22 +6793,28 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="E220" t="n">
         <v>9</v>
       </c>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -6708,22 +6822,28 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
       </c>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -6731,22 +6851,28 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>5</v>
+        <v>4000</v>
       </c>
       <c r="E222" t="n">
         <v>1</v>
       </c>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>61.67</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6754,22 +6880,28 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>5</v>
+        <v>4000</v>
       </c>
       <c r="E223" t="n">
         <v>2</v>
       </c>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>59.49</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6777,22 +6909,28 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>5</v>
+        <v>4000</v>
       </c>
       <c r="E224" t="n">
         <v>3</v>
       </c>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>62.25</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6800,22 +6938,28 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>5</v>
+        <v>4000</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
       </c>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>64.13</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6823,22 +6967,28 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>5</v>
+        <v>4000</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
       </c>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>59.13</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6846,22 +6996,28 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>5</v>
+        <v>4000</v>
       </c>
       <c r="E227" t="n">
         <v>6</v>
       </c>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>60.84</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6869,22 +7025,28 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>5</v>
+        <v>4000</v>
       </c>
       <c r="E228" t="n">
         <v>7</v>
       </c>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>62.68</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6892,22 +7054,28 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5</v>
+        <v>4000</v>
       </c>
       <c r="E229" t="n">
         <v>8</v>
       </c>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6915,22 +7083,28 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>5</v>
+        <v>4000</v>
       </c>
       <c r="E230" t="n">
         <v>9</v>
       </c>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>64.06999999999999</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6938,22 +7112,28 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>5</v>
+        <v>4000</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
       </c>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>59.7</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6961,22 +7141,28 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>8</v>
+        <v>3400</v>
       </c>
       <c r="E232" t="n">
         <v>1</v>
       </c>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>36.93</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6984,22 +7170,28 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>8</v>
+        <v>3400</v>
       </c>
       <c r="E233" t="n">
         <v>2</v>
       </c>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>39.51</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -7007,22 +7199,28 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>8</v>
+        <v>3400</v>
       </c>
       <c r="E234" t="n">
         <v>3</v>
       </c>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>38.57</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -7030,22 +7228,28 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>8</v>
+        <v>3400</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
       </c>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>39.28</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -7053,22 +7257,28 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>8</v>
+        <v>3400</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
       </c>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>37.77</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -7076,22 +7286,28 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>8</v>
+        <v>3400</v>
       </c>
       <c r="E237" t="n">
         <v>6</v>
       </c>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>37.18</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -7099,22 +7315,28 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>8</v>
+        <v>3400</v>
       </c>
       <c r="E238" t="n">
         <v>7</v>
       </c>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>37.59</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -7122,22 +7344,28 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>8</v>
+        <v>3400</v>
       </c>
       <c r="E239" t="n">
         <v>8</v>
       </c>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>38.98</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -7145,22 +7373,28 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>8</v>
+        <v>3400</v>
       </c>
       <c r="E240" t="n">
         <v>9</v>
       </c>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>37.83</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -7168,22 +7402,28 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>8</v>
+        <v>3400</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
       </c>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>37.4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -7191,22 +7431,28 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="E242" t="n">
         <v>1</v>
       </c>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>27.6</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -7214,22 +7460,28 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="E243" t="n">
         <v>2</v>
       </c>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -7237,22 +7489,28 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="E244" t="n">
         <v>3</v>
       </c>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>26.25</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -7260,22 +7518,28 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
       </c>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>29.33</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -7283,22 +7547,28 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
       </c>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>25.92</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -7306,22 +7576,28 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="E247" t="n">
         <v>6</v>
       </c>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>26.83</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -7329,22 +7605,28 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="E248" t="n">
         <v>7</v>
       </c>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -7352,22 +7634,28 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="E249" t="n">
         <v>8</v>
       </c>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>28.47</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -7375,22 +7663,28 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="E250" t="n">
         <v>9</v>
       </c>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>28.18</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -7398,22 +7692,28 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
       </c>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>27.34</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -7421,22 +7721,28 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="E252" t="n">
         <v>1</v>
       </c>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -7444,22 +7750,28 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="E253" t="n">
         <v>2</v>
       </c>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -7467,22 +7779,28 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="E254" t="n">
         <v>3</v>
       </c>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -7490,22 +7808,28 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
       </c>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -7513,22 +7837,28 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
       </c>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -7536,22 +7866,28 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="E257" t="n">
         <v>6</v>
       </c>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -7559,22 +7895,28 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="E258" t="n">
         <v>7</v>
       </c>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -7582,22 +7924,28 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="E259" t="n">
         <v>8</v>
       </c>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G259" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -7605,22 +7953,28 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="E260" t="n">
         <v>9</v>
       </c>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -7628,22 +7982,2568 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
       </c>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G261" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E264" t="n">
+        <v>3</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E265" t="n">
+        <v>4</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E266" t="n">
+        <v>5</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E267" t="n">
+        <v>6</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G267" t="n">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E268" t="n">
+        <v>7</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E269" t="n">
+        <v>8</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E270" t="n">
+        <v>9</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E271" t="n">
+        <v>10</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G272" t="n">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E273" t="n">
+        <v>2</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G273" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E274" t="n">
+        <v>3</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G274" t="n">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E275" t="n">
+        <v>4</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G275" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E276" t="n">
+        <v>5</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G276" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E277" t="n">
+        <v>6</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G277" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E278" t="n">
+        <v>7</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E279" t="n">
+        <v>8</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E280" t="n">
+        <v>9</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E281" t="n">
+        <v>10</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>4200</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>4200</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>4200</v>
+      </c>
+      <c r="E284" t="n">
+        <v>3</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>4200</v>
+      </c>
+      <c r="E285" t="n">
+        <v>4</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>4200</v>
+      </c>
+      <c r="E286" t="n">
+        <v>5</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>12.43</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>4200</v>
+      </c>
+      <c r="E287" t="n">
+        <v>6</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G287" t="n">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>4200</v>
+      </c>
+      <c r="E288" t="n">
+        <v>7</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G288" t="n">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>4200</v>
+      </c>
+      <c r="E289" t="n">
+        <v>8</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>4200</v>
+      </c>
+      <c r="E290" t="n">
+        <v>9</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>4200</v>
+      </c>
+      <c r="E291" t="n">
+        <v>10</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>57.76</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E293" t="n">
+        <v>2</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E294" t="n">
+        <v>3</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>62.22</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E295" t="n">
+        <v>4</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>61.88</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E296" t="n">
+        <v>5</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>62.37</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E297" t="n">
+        <v>6</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>64.94</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E298" t="n">
+        <v>7</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G298" t="n">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E299" t="n">
+        <v>8</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>61.87</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E300" t="n">
+        <v>9</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E301" t="n">
+        <v>10</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>57.78</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>3</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1</v>
+      </c>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>3</v>
+      </c>
+      <c r="E303" t="n">
+        <v>2</v>
+      </c>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>3</v>
+      </c>
+      <c r="E304" t="n">
+        <v>3</v>
+      </c>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>3</v>
+      </c>
+      <c r="E305" t="n">
+        <v>4</v>
+      </c>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>3</v>
+      </c>
+      <c r="E306" t="n">
+        <v>5</v>
+      </c>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>3</v>
+      </c>
+      <c r="E307" t="n">
+        <v>6</v>
+      </c>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>3</v>
+      </c>
+      <c r="E308" t="n">
+        <v>7</v>
+      </c>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>3</v>
+      </c>
+      <c r="E309" t="n">
+        <v>8</v>
+      </c>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>3</v>
+      </c>
+      <c r="E310" t="n">
+        <v>9</v>
+      </c>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>3</v>
+      </c>
+      <c r="E311" t="n">
+        <v>10</v>
+      </c>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>4</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1</v>
+      </c>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>4</v>
+      </c>
+      <c r="E313" t="n">
+        <v>2</v>
+      </c>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>4</v>
+      </c>
+      <c r="E314" t="n">
+        <v>3</v>
+      </c>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>4</v>
+      </c>
+      <c r="E315" t="n">
+        <v>4</v>
+      </c>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>4</v>
+      </c>
+      <c r="E316" t="n">
+        <v>5</v>
+      </c>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>4</v>
+      </c>
+      <c r="E317" t="n">
+        <v>6</v>
+      </c>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>4</v>
+      </c>
+      <c r="E318" t="n">
+        <v>7</v>
+      </c>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>4</v>
+      </c>
+      <c r="E319" t="n">
+        <v>8</v>
+      </c>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>4</v>
+      </c>
+      <c r="E320" t="n">
+        <v>9</v>
+      </c>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>4</v>
+      </c>
+      <c r="E321" t="n">
+        <v>10</v>
+      </c>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>5</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1</v>
+      </c>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>5</v>
+      </c>
+      <c r="E323" t="n">
+        <v>2</v>
+      </c>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>5</v>
+      </c>
+      <c r="E324" t="n">
+        <v>3</v>
+      </c>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>5</v>
+      </c>
+      <c r="E325" t="n">
+        <v>4</v>
+      </c>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>5</v>
+      </c>
+      <c r="E326" t="n">
+        <v>5</v>
+      </c>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>5</v>
+      </c>
+      <c r="E327" t="n">
+        <v>6</v>
+      </c>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>5</v>
+      </c>
+      <c r="E328" t="n">
+        <v>7</v>
+      </c>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>5</v>
+      </c>
+      <c r="E329" t="n">
+        <v>8</v>
+      </c>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>5</v>
+      </c>
+      <c r="E330" t="n">
+        <v>9</v>
+      </c>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>5</v>
+      </c>
+      <c r="E331" t="n">
+        <v>10</v>
+      </c>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>8</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1</v>
+      </c>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>8</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2</v>
+      </c>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>8</v>
+      </c>
+      <c r="E334" t="n">
+        <v>3</v>
+      </c>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>8</v>
+      </c>
+      <c r="E335" t="n">
+        <v>4</v>
+      </c>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>8</v>
+      </c>
+      <c r="E336" t="n">
+        <v>5</v>
+      </c>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>8</v>
+      </c>
+      <c r="E337" t="n">
+        <v>6</v>
+      </c>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>8</v>
+      </c>
+      <c r="E338" t="n">
+        <v>7</v>
+      </c>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>8</v>
+      </c>
+      <c r="E339" t="n">
+        <v>8</v>
+      </c>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>8</v>
+      </c>
+      <c r="E340" t="n">
+        <v>9</v>
+      </c>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>8</v>
+      </c>
+      <c r="E341" t="n">
+        <v>10</v>
+      </c>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>7</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1</v>
+      </c>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>7</v>
+      </c>
+      <c r="E343" t="n">
+        <v>2</v>
+      </c>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>7</v>
+      </c>
+      <c r="E344" t="n">
+        <v>3</v>
+      </c>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>7</v>
+      </c>
+      <c r="E345" t="n">
+        <v>4</v>
+      </c>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>7</v>
+      </c>
+      <c r="E346" t="n">
+        <v>5</v>
+      </c>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>7</v>
+      </c>
+      <c r="E347" t="n">
+        <v>6</v>
+      </c>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>7</v>
+      </c>
+      <c r="E348" t="n">
+        <v>7</v>
+      </c>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>7</v>
+      </c>
+      <c r="E349" t="n">
+        <v>8</v>
+      </c>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>7</v>
+      </c>
+      <c r="E350" t="n">
+        <v>9</v>
+      </c>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>7</v>
+      </c>
+      <c r="E351" t="n">
+        <v>10</v>
+      </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>9</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1</v>
+      </c>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>9</v>
+      </c>
+      <c r="E353" t="n">
+        <v>2</v>
+      </c>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>9</v>
+      </c>
+      <c r="E354" t="n">
+        <v>3</v>
+      </c>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>9</v>
+      </c>
+      <c r="E355" t="n">
+        <v>4</v>
+      </c>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>9</v>
+      </c>
+      <c r="E356" t="n">
+        <v>5</v>
+      </c>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>9</v>
+      </c>
+      <c r="E357" t="n">
+        <v>6</v>
+      </c>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>9</v>
+      </c>
+      <c r="E358" t="n">
+        <v>7</v>
+      </c>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>9</v>
+      </c>
+      <c r="E359" t="n">
+        <v>8</v>
+      </c>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>9</v>
+      </c>
+      <c r="E360" t="n">
+        <v>9</v>
+      </c>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>9</v>
+      </c>
+      <c r="E361" t="n">
+        <v>10</v>
+      </c>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/charts/1.xlsx
+++ b/charts/1.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36.32</v>
+        <v>125.94</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>38.21</v>
+        <v>118.13</v>
       </c>
     </row>
     <row r="4">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>37.93</v>
+        <v>116.82</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>40.56</v>
+        <v>113.87</v>
       </c>
     </row>
     <row r="6">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>39.07</v>
+        <v>125.07</v>
       </c>
     </row>
     <row r="7">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>42.35</v>
+        <v>109.37</v>
       </c>
     </row>
     <row r="8">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>39.56</v>
+        <v>132.72</v>
       </c>
     </row>
     <row r="9">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>43.08</v>
+        <v>110.44</v>
       </c>
     </row>
     <row r="10">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>38.55</v>
+        <v>117.85</v>
       </c>
     </row>
     <row r="11">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>37</v>
+        <v>121.56</v>
       </c>
     </row>
     <row r="12">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="13">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="14">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="15">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="16">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.68</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="18">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="19">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="20">
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="21">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="22">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>33.92</v>
+        <v>31.27</v>
       </c>
     </row>
     <row r="23">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>30.62</v>
+        <v>34.28</v>
       </c>
     </row>
     <row r="24">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>30.61</v>
+        <v>34.72</v>
       </c>
     </row>
     <row r="25">
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>34.17</v>
+        <v>32.44</v>
       </c>
     </row>
     <row r="26">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>31.79</v>
+        <v>34.04</v>
       </c>
     </row>
     <row r="27">
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>30.47</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="28">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>31.43</v>
+        <v>33.41</v>
       </c>
     </row>
     <row r="29">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>34.8</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="30">
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>31.79</v>
+        <v>36.74</v>
       </c>
     </row>
     <row r="31">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>32.64</v>
+        <v>31.27</v>
       </c>
     </row>
     <row r="32">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="35">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="37">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="40">
@@ -1645,14 +1645,8 @@
       <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>17.05</v>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1674,14 +1668,8 @@
       <c r="E43" t="n">
         <v>2</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>18.21</v>
-      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1703,14 +1691,8 @@
       <c r="E44" t="n">
         <v>3</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1732,14 +1714,8 @@
       <c r="E45" t="n">
         <v>4</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>18.51</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1761,14 +1737,8 @@
       <c r="E46" t="n">
         <v>5</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>16.68</v>
-      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1790,14 +1760,8 @@
       <c r="E47" t="n">
         <v>6</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1819,14 +1783,8 @@
       <c r="E48" t="n">
         <v>7</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>18.25</v>
-      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1848,14 +1806,8 @@
       <c r="E49" t="n">
         <v>8</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>17.77</v>
-      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1877,14 +1829,8 @@
       <c r="E50" t="n">
         <v>9</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>18.49</v>
-      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1906,14 +1852,8 @@
       <c r="E51" t="n">
         <v>10</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>19.25</v>
-      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1941,7 +1881,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>44.14</v>
+        <v>104.69</v>
       </c>
     </row>
     <row r="53">
@@ -1970,7 +1910,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>45.8</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="54">
@@ -1999,7 +1939,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>43.83</v>
+        <v>109.35</v>
       </c>
     </row>
     <row r="55">
@@ -2028,7 +1968,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>44.43</v>
+        <v>100.95</v>
       </c>
     </row>
     <row r="56">
@@ -2057,7 +1997,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>45.03</v>
+        <v>104.84</v>
       </c>
     </row>
     <row r="57">
@@ -2086,7 +2026,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>45.28</v>
+        <v>101.04</v>
       </c>
     </row>
     <row r="58">
@@ -2115,7 +2055,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>45.2</v>
+        <v>102.67</v>
       </c>
     </row>
     <row r="59">
@@ -2144,7 +2084,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>45.77</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="60">
@@ -2173,7 +2113,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>45.76</v>
+        <v>102.89</v>
       </c>
     </row>
     <row r="61">
@@ -2202,7 +2142,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>44.2</v>
+        <v>105.15</v>
       </c>
     </row>
     <row r="62">
@@ -2231,7 +2171,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>14.11</v>
+        <v>14.21</v>
       </c>
     </row>
     <row r="63">
@@ -2260,7 +2200,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>13.52</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="64">
@@ -2289,7 +2229,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>14.67</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="65">
@@ -2318,7 +2258,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>14.15</v>
+        <v>14.66</v>
       </c>
     </row>
     <row r="66">
@@ -2347,7 +2287,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>13.62</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="67">
@@ -2376,7 +2316,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>14.26</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="68">
@@ -2405,7 +2345,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>13.9</v>
+        <v>15.33</v>
       </c>
     </row>
     <row r="69">
@@ -2434,7 +2374,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>14.9</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="70">
@@ -2492,7 +2432,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>15.09</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="72">
@@ -2521,7 +2461,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.69</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="73">
@@ -2550,7 +2490,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="74">
@@ -2579,7 +2519,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.71</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="75">
@@ -2608,7 +2548,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.05</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="76">
@@ -2637,7 +2577,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.57</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="77">
@@ -2666,7 +2606,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="78">
@@ -2695,7 +2635,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.63</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="79">
@@ -2724,7 +2664,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.59</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="80">
@@ -2753,7 +2693,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.27</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="81">
@@ -2782,7 +2722,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -2805,14 +2745,8 @@
       <c r="E82" t="n">
         <v>1</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>21.03</v>
-      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2834,14 +2768,8 @@
       <c r="E83" t="n">
         <v>2</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>21.85</v>
-      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2863,14 +2791,8 @@
       <c r="E84" t="n">
         <v>3</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>21.98</v>
-      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2892,14 +2814,8 @@
       <c r="E85" t="n">
         <v>4</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2921,14 +2837,8 @@
       <c r="E86" t="n">
         <v>5</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>20.65</v>
-      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2950,14 +2860,8 @@
       <c r="E87" t="n">
         <v>6</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
-        <v>21.42</v>
-      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2979,14 +2883,8 @@
       <c r="E88" t="n">
         <v>7</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>22.74</v>
-      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3008,14 +2906,8 @@
       <c r="E89" t="n">
         <v>8</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>21.96</v>
-      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3037,14 +2929,8 @@
       <c r="E90" t="n">
         <v>9</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>20.97</v>
-      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3066,14 +2952,8 @@
       <c r="E91" t="n">
         <v>10</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>22.14</v>
-      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3188,7 +3068,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="96">
@@ -3217,7 +3097,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="97">
@@ -3304,7 +3184,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="100">
@@ -3333,7 +3213,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="101">
@@ -3362,7 +3242,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="102">
@@ -3391,7 +3271,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>51.14</v>
+        <v>96.29000000000001</v>
       </c>
     </row>
     <row r="103">
@@ -3420,7 +3300,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>51.47</v>
+        <v>91.37</v>
       </c>
     </row>
     <row r="104">
@@ -3449,7 +3329,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>52.18</v>
+        <v>93.51000000000001</v>
       </c>
     </row>
     <row r="105">
@@ -3478,7 +3358,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>51.63</v>
+        <v>89.56999999999999</v>
       </c>
     </row>
     <row r="106">
@@ -3507,7 +3387,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>55.36</v>
+        <v>96.65000000000001</v>
       </c>
     </row>
     <row r="107">
@@ -3536,7 +3416,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>52.15</v>
+        <v>87.95999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -3565,7 +3445,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>50.42</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="109">
@@ -3594,7 +3474,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>56.45</v>
+        <v>90.06</v>
       </c>
     </row>
     <row r="110">
@@ -3623,7 +3503,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>53.75</v>
+        <v>92.03</v>
       </c>
     </row>
     <row r="111">
@@ -3652,7 +3532,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>52.54</v>
+        <v>96.86</v>
       </c>
     </row>
     <row r="112">
@@ -3681,7 +3561,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>20.97</v>
+        <v>21.17</v>
       </c>
     </row>
     <row r="113">
@@ -3710,7 +3590,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>20.8</v>
+        <v>22.83</v>
       </c>
     </row>
     <row r="114">
@@ -3739,7 +3619,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>21.83</v>
+        <v>22.61</v>
       </c>
     </row>
     <row r="115">
@@ -3768,7 +3648,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>21.59</v>
+        <v>26.68</v>
       </c>
     </row>
     <row r="116">
@@ -3797,7 +3677,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>20.72</v>
+        <v>21.92</v>
       </c>
     </row>
     <row r="117">
@@ -3826,7 +3706,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>21.85</v>
+        <v>20.97</v>
       </c>
     </row>
     <row r="118">
@@ -3855,7 +3735,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>21.2</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="119">
@@ -3884,7 +3764,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>22.96</v>
+        <v>22.61</v>
       </c>
     </row>
     <row r="120">
@@ -3913,7 +3793,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>21.06</v>
+        <v>21.49</v>
       </c>
     </row>
     <row r="121">
@@ -3942,7 +3822,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>21.27</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="122">
@@ -3965,14 +3845,8 @@
       <c r="E122" t="n">
         <v>1</v>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>27.59</v>
-      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3994,14 +3868,8 @@
       <c r="E123" t="n">
         <v>2</v>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>26.36</v>
-      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4023,14 +3891,8 @@
       <c r="E124" t="n">
         <v>3</v>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
-        <v>26.99</v>
-      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4052,14 +3914,8 @@
       <c r="E125" t="n">
         <v>4</v>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
-        <v>25.83</v>
-      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4081,14 +3937,8 @@
       <c r="E126" t="n">
         <v>5</v>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>26.13</v>
-      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4110,14 +3960,8 @@
       <c r="E127" t="n">
         <v>6</v>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>25.84</v>
-      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4139,14 +3983,8 @@
       <c r="E128" t="n">
         <v>7</v>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>26.94</v>
-      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4168,14 +4006,8 @@
       <c r="E129" t="n">
         <v>8</v>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>25.64</v>
-      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4197,14 +4029,8 @@
       <c r="E130" t="n">
         <v>9</v>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>27.16</v>
-      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4226,14 +4052,8 @@
       <c r="E131" t="n">
         <v>10</v>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>25.21</v>
-      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4261,7 +4081,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.93</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="133">
@@ -4319,7 +4139,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135">
@@ -4348,7 +4168,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="136">
@@ -4377,7 +4197,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.92</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="137">
@@ -4406,7 +4226,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="138">
@@ -4435,7 +4255,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="139">
@@ -4464,7 +4284,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="140">
@@ -4493,7 +4313,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.98</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="141">
@@ -4522,7 +4342,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="142">
@@ -4551,7 +4371,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>7.91</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="143">
@@ -4580,7 +4400,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>9.35</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="144">
@@ -4609,7 +4429,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>7.12</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="145">
@@ -4638,7 +4458,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>9.369999999999999</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="146">
@@ -4667,7 +4487,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>8.65</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="147">
@@ -4696,7 +4516,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>7.92</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="148">
@@ -4725,7 +4545,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>7.35</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="149">
@@ -4754,7 +4574,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>7.91</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="150">
@@ -4783,7 +4603,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>7.89</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="151">
@@ -4812,7 +4632,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>7.99</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="152">
@@ -4841,7 +4661,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>17.59</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="153">
@@ -4870,7 +4690,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>17.14</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="154">
@@ -4899,7 +4719,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>17.83</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="155">
@@ -4928,7 +4748,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>17.45</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="156">
@@ -4957,7 +4777,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>16.72</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="157">
@@ -4986,7 +4806,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>17.63</v>
+        <v>20.28</v>
       </c>
     </row>
     <row r="158">
@@ -5015,7 +4835,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>17.02</v>
+        <v>19.29</v>
       </c>
     </row>
     <row r="159">
@@ -5044,7 +4864,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="160">
@@ -5073,7 +4893,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>17.56</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="161">
@@ -5102,7 +4922,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>16.98</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="162">
@@ -5131,7 +4951,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>47.18</v>
+        <v>47.64</v>
       </c>
     </row>
     <row r="163">
@@ -5160,7 +4980,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>42.52</v>
+        <v>44.49</v>
       </c>
     </row>
     <row r="164">
@@ -5189,7 +5009,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>43.53</v>
+        <v>46.56</v>
       </c>
     </row>
     <row r="165">
@@ -5218,7 +5038,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>47.86</v>
+        <v>48.56</v>
       </c>
     </row>
     <row r="166">
@@ -5247,7 +5067,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>43.34</v>
+        <v>46.59</v>
       </c>
     </row>
     <row r="167">
@@ -5276,7 +5096,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>45.85</v>
+        <v>51.64</v>
       </c>
     </row>
     <row r="168">
@@ -5305,7 +5125,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>45.92</v>
+        <v>50.72</v>
       </c>
     </row>
     <row r="169">
@@ -5334,7 +5154,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>43.23</v>
+        <v>48.61</v>
       </c>
     </row>
     <row r="170">
@@ -5363,7 +5183,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>44.98</v>
+        <v>45.73</v>
       </c>
     </row>
     <row r="171">
@@ -5392,7 +5212,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>43.85</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="172">
@@ -5421,7 +5241,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>30.55</v>
+        <v>128.37</v>
       </c>
     </row>
     <row r="173">
@@ -5450,7 +5270,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>30.58</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="174">
@@ -5479,7 +5299,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>30.05</v>
+        <v>134.67</v>
       </c>
     </row>
     <row r="175">
@@ -5508,7 +5328,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>33.59</v>
+        <v>130.94</v>
       </c>
     </row>
     <row r="176">
@@ -5537,7 +5357,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>32.21</v>
+        <v>137.1</v>
       </c>
     </row>
     <row r="177">
@@ -5566,7 +5386,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>32.38</v>
+        <v>128.39</v>
       </c>
     </row>
     <row r="178">
@@ -5595,7 +5415,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>32.19</v>
+        <v>133.75</v>
       </c>
     </row>
     <row r="179">
@@ -5624,7 +5444,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>31.43</v>
+        <v>125.39</v>
       </c>
     </row>
     <row r="180">
@@ -5653,7 +5473,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>33</v>
+        <v>132.56</v>
       </c>
     </row>
     <row r="181">
@@ -5682,7 +5502,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>31.7</v>
+        <v>133.64</v>
       </c>
     </row>
     <row r="182">
@@ -5711,7 +5531,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>53.46</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="183">
@@ -5740,7 +5560,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>51.29</v>
+        <v>51.38</v>
       </c>
     </row>
     <row r="184">
@@ -5769,7 +5589,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>50.34</v>
+        <v>49.96</v>
       </c>
     </row>
     <row r="185">
@@ -5798,7 +5618,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>54.38</v>
+        <v>52.97</v>
       </c>
     </row>
     <row r="186">
@@ -5827,7 +5647,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>48.72</v>
+        <v>50.95</v>
       </c>
     </row>
     <row r="187">
@@ -5856,7 +5676,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>54.17</v>
+        <v>51.27</v>
       </c>
     </row>
     <row r="188">
@@ -5885,7 +5705,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>51.71</v>
+        <v>53.81</v>
       </c>
     </row>
     <row r="189">
@@ -5914,7 +5734,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>53.55</v>
+        <v>52.29</v>
       </c>
     </row>
     <row r="190">
@@ -5943,7 +5763,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>52.39</v>
+        <v>56.61</v>
       </c>
     </row>
     <row r="191">
@@ -5972,7 +5792,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>53.21</v>
+        <v>53.06</v>
       </c>
     </row>
     <row r="192">
@@ -6001,7 +5821,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.32</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="193">
@@ -6030,7 +5850,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="194">
@@ -6059,7 +5879,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="195">
@@ -6088,7 +5908,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="196">
@@ -6117,7 +5937,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="197">
@@ -6146,7 +5966,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="198">
@@ -6175,7 +5995,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="199">
@@ -6204,7 +6024,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="200">
@@ -6233,7 +6053,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.58</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="201">
@@ -6262,7 +6082,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.63</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="202">
@@ -6285,14 +6105,8 @@
       <c r="E202" t="n">
         <v>1</v>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G202" t="n">
-        <v>14.67</v>
-      </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -6314,14 +6128,8 @@
       <c r="E203" t="n">
         <v>2</v>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G203" t="n">
-        <v>15.02</v>
-      </c>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -6343,14 +6151,8 @@
       <c r="E204" t="n">
         <v>3</v>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G204" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -6372,14 +6174,8 @@
       <c r="E205" t="n">
         <v>4</v>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G205" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -6401,14 +6197,8 @@
       <c r="E206" t="n">
         <v>5</v>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G206" t="n">
-        <v>14.53</v>
-      </c>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -6430,14 +6220,8 @@
       <c r="E207" t="n">
         <v>6</v>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G207" t="n">
-        <v>13.95</v>
-      </c>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -6459,14 +6243,8 @@
       <c r="E208" t="n">
         <v>7</v>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G208" t="n">
-        <v>14</v>
-      </c>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -6488,14 +6266,8 @@
       <c r="E209" t="n">
         <v>8</v>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G209" t="n">
-        <v>13.42</v>
-      </c>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -6517,14 +6289,8 @@
       <c r="E210" t="n">
         <v>9</v>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G210" t="n">
-        <v>15.04</v>
-      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -6546,14 +6312,8 @@
       <c r="E211" t="n">
         <v>10</v>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G211" t="n">
-        <v>14.41</v>
-      </c>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -6581,7 +6341,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="213">
@@ -6610,7 +6370,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="214">
@@ -6639,7 +6399,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="215">
@@ -6668,7 +6428,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="216">
@@ -6697,7 +6457,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="217">
@@ -6726,7 +6486,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="218">
@@ -6755,7 +6515,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.63</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="219">
@@ -6784,7 +6544,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="220">
@@ -6813,7 +6573,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="221">
@@ -6842,7 +6602,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.79</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="222">
@@ -6871,7 +6631,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>61.67</v>
+        <v>59.39</v>
       </c>
     </row>
     <row r="223">
@@ -6900,7 +6660,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>59.49</v>
+        <v>58.67</v>
       </c>
     </row>
     <row r="224">
@@ -6929,7 +6689,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>62.25</v>
+        <v>61.46</v>
       </c>
     </row>
     <row r="225">
@@ -6958,7 +6718,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>64.13</v>
+        <v>58.67</v>
       </c>
     </row>
     <row r="226">
@@ -6987,7 +6747,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>59.13</v>
+        <v>58.64</v>
       </c>
     </row>
     <row r="227">
@@ -7016,7 +6776,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>60.84</v>
+        <v>61.05</v>
       </c>
     </row>
     <row r="228">
@@ -7045,7 +6805,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>62.68</v>
+        <v>65.20999999999999</v>
       </c>
     </row>
     <row r="229">
@@ -7074,7 +6834,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>60</v>
+        <v>61.01</v>
       </c>
     </row>
     <row r="230">
@@ -7103,7 +6863,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>64.06999999999999</v>
+        <v>65.63</v>
       </c>
     </row>
     <row r="231">
@@ -7132,7 +6892,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>59.7</v>
+        <v>60.09</v>
       </c>
     </row>
     <row r="232">
@@ -7161,7 +6921,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>36.93</v>
+        <v>37.16</v>
       </c>
     </row>
     <row r="233">
@@ -7190,7 +6950,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>39.51</v>
+        <v>39.08</v>
       </c>
     </row>
     <row r="234">
@@ -7219,7 +6979,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>38.57</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="235">
@@ -7248,7 +7008,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>39.28</v>
+        <v>39.05</v>
       </c>
     </row>
     <row r="236">
@@ -7277,7 +7037,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>37.77</v>
+        <v>39.97</v>
       </c>
     </row>
     <row r="237">
@@ -7306,7 +7066,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>37.18</v>
+        <v>40.14</v>
       </c>
     </row>
     <row r="238">
@@ -7335,7 +7095,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>37.59</v>
+        <v>38.91</v>
       </c>
     </row>
     <row r="239">
@@ -7364,7 +7124,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>38.98</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="240">
@@ -7393,7 +7153,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>37.83</v>
+        <v>39.42</v>
       </c>
     </row>
     <row r="241">
@@ -7422,7 +7182,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>37.4</v>
+        <v>38.59</v>
       </c>
     </row>
     <row r="242">
@@ -7451,7 +7211,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>27.6</v>
+        <v>30.31</v>
       </c>
     </row>
     <row r="243">
@@ -7480,7 +7240,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>25.6</v>
+        <v>29.06</v>
       </c>
     </row>
     <row r="244">
@@ -7509,7 +7269,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>26.25</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="245">
@@ -7538,7 +7298,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>29.33</v>
+        <v>29.63</v>
       </c>
     </row>
     <row r="246">
@@ -7567,7 +7327,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>25.92</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="247">
@@ -7596,7 +7356,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>26.83</v>
+        <v>28.89</v>
       </c>
     </row>
     <row r="248">
@@ -7625,7 +7385,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>26.24</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="249">
@@ -7654,7 +7414,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>28.47</v>
+        <v>25.49</v>
       </c>
     </row>
     <row r="250">
@@ -7683,7 +7443,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>28.18</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="251">
@@ -7712,7 +7472,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>27.34</v>
+        <v>25.26</v>
       </c>
     </row>
     <row r="252">
@@ -7857,7 +7617,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="257">
@@ -7886,7 +7646,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="258">
@@ -8031,7 +7791,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>9.44</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="263">
@@ -8060,7 +7820,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>13.16</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="264">
@@ -8089,7 +7849,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>9.75</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="265">
@@ -8118,7 +7878,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>12.02</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="266">
@@ -8147,7 +7907,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>10</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="267">
@@ -8176,7 +7936,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>10.72</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="268">
@@ -8205,7 +7965,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>9.74</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="269">
@@ -8234,7 +7994,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>10.48</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="270">
@@ -8263,7 +8023,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>11.3</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="271">
@@ -8292,7 +8052,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>10.5</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="272">
@@ -8321,7 +8081,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>6.44</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="273">
@@ -8350,7 +8110,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>5.89</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="274">
@@ -8379,7 +8139,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>6.97</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="275">
@@ -8408,7 +8168,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>6.47</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="276">
@@ -8437,7 +8197,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>5.49</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="277">
@@ -8466,7 +8226,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>5.18</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="278">
@@ -8495,7 +8255,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>5.28</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="279">
@@ -8524,7 +8284,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>5.03</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="280">
@@ -8553,7 +8313,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>5.36</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="281">
@@ -8582,7 +8342,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>5.31</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="282">
@@ -8611,7 +8371,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>10.8</v>
+        <v>71.79000000000001</v>
       </c>
     </row>
     <row r="283">
@@ -8640,7 +8400,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>11.94</v>
+        <v>73.58</v>
       </c>
     </row>
     <row r="284">
@@ -8669,7 +8429,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>13.43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="285">
@@ -8698,7 +8458,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>11.46</v>
+        <v>68.31999999999999</v>
       </c>
     </row>
     <row r="286">
@@ -8727,7 +8487,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>12.43</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="287">
@@ -8756,7 +8516,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>11.14</v>
+        <v>68.73</v>
       </c>
     </row>
     <row r="288">
@@ -8785,7 +8545,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>11.14</v>
+        <v>73.03</v>
       </c>
     </row>
     <row r="289">
@@ -8814,7 +8574,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>11.36</v>
+        <v>67.88</v>
       </c>
     </row>
     <row r="290">
@@ -8843,7 +8603,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>11.95</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="291">
@@ -8872,7 +8632,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>12.19</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="292">
@@ -8901,7 +8661,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>57.76</v>
+        <v>82.47</v>
       </c>
     </row>
     <row r="293">
@@ -8930,7 +8690,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>59.3</v>
+        <v>81.59</v>
       </c>
     </row>
     <row r="294">
@@ -8959,7 +8719,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>62.22</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="295">
@@ -8988,7 +8748,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>61.88</v>
+        <v>80.11</v>
       </c>
     </row>
     <row r="296">
@@ -9017,7 +8777,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>62.37</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="297">
@@ -9046,7 +8806,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>64.94</v>
+        <v>76.28</v>
       </c>
     </row>
     <row r="298">
@@ -9075,7 +8835,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>64.7</v>
+        <v>79.06</v>
       </c>
     </row>
     <row r="299">
@@ -9104,7 +8864,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>61.87</v>
+        <v>77.23</v>
       </c>
     </row>
     <row r="300">
@@ -9133,7 +8893,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>62</v>
+        <v>81.92</v>
       </c>
     </row>
     <row r="301">
@@ -9162,7 +8922,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>57.78</v>
+        <v>80.54000000000001</v>
       </c>
     </row>
     <row r="302">
